--- a/tabular/eve/eve-side-data.xlsx
+++ b/tabular/eve/eve-side-data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Filovirus-GLUE/tabular/eve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232931DA-4329-ED45-99D8-62A47203C19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="900" windowWidth="35080" windowHeight="24180" tabRatio="500"/>
+    <workbookView xWindow="10200" yWindow="900" windowWidth="35080" windowHeight="24180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1447,7 +1453,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1682,6 +1688,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2006,14 +2020,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -2022,7 +2036,7 @@
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>459</v>
       </c>
@@ -2063,7 +2077,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -2104,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2145,7 +2159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -2186,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -2227,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -2309,7 +2323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -2350,7 +2364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -2432,7 +2446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -2555,7 +2569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -2596,7 +2610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -2678,7 +2692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2719,7 +2733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
@@ -2760,7 +2774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
@@ -2801,7 +2815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
@@ -2842,7 +2856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -2883,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -2924,7 +2938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -2965,7 +2979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>96</v>
       </c>
@@ -3006,7 +3020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
@@ -3047,7 +3061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
@@ -3088,7 +3102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>104</v>
       </c>
@@ -3129,7 +3143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>107</v>
       </c>
@@ -3170,7 +3184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>110</v>
       </c>
@@ -3211,7 +3225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>112</v>
       </c>
@@ -3252,7 +3266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>114</v>
       </c>
@@ -3293,7 +3307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>116</v>
       </c>
@@ -3334,7 +3348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>118</v>
       </c>
@@ -3375,7 +3389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>120</v>
       </c>
@@ -3416,7 +3430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>122</v>
       </c>
@@ -3457,7 +3471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>124</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>126</v>
       </c>
@@ -3539,7 +3553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>127</v>
       </c>
@@ -3580,7 +3594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>129</v>
       </c>
@@ -3621,7 +3635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>131</v>
       </c>
@@ -3662,7 +3676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>133</v>
       </c>
@@ -3703,7 +3717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>135</v>
       </c>
@@ -3744,7 +3758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>137</v>
       </c>
@@ -3785,7 +3799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>139</v>
       </c>
@@ -3826,7 +3840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>141</v>
       </c>
@@ -3867,7 +3881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>143</v>
       </c>
@@ -3908,7 +3922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>145</v>
       </c>
@@ -3949,7 +3963,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>147</v>
       </c>
@@ -3990,7 +4004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>149</v>
       </c>
@@ -4031,7 +4045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>152</v>
       </c>
@@ -4072,7 +4086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>154</v>
       </c>
@@ -4113,7 +4127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>156</v>
       </c>
@@ -4154,7 +4168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>158</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>160</v>
       </c>
@@ -4236,7 +4250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>163</v>
       </c>
@@ -4277,7 +4291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>165</v>
       </c>
@@ -4318,7 +4332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>167</v>
       </c>
@@ -4359,7 +4373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>170</v>
       </c>
@@ -4400,7 +4414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>172</v>
       </c>
@@ -4441,7 +4455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>175</v>
       </c>
@@ -4482,7 +4496,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>178</v>
       </c>
@@ -4523,7 +4537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>181</v>
       </c>
@@ -4564,7 +4578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>183</v>
       </c>
@@ -4605,7 +4619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>185</v>
       </c>
@@ -4646,7 +4660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>188</v>
       </c>
@@ -4687,7 +4701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>190</v>
       </c>
@@ -4728,7 +4742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>192</v>
       </c>
@@ -4769,7 +4783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>195</v>
       </c>
@@ -4810,7 +4824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>197</v>
       </c>
@@ -4851,7 +4865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>199</v>
       </c>
@@ -4892,7 +4906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>202</v>
       </c>
@@ -4933,7 +4947,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>204</v>
       </c>
@@ -4974,7 +4988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>206</v>
       </c>
@@ -5015,7 +5029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>209</v>
       </c>
@@ -5056,7 +5070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>212</v>
       </c>
@@ -5097,7 +5111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>214</v>
       </c>
@@ -5138,7 +5152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>216</v>
       </c>
@@ -5179,7 +5193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>218</v>
       </c>
@@ -5220,7 +5234,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>220</v>
       </c>
@@ -5261,7 +5275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>222</v>
       </c>
@@ -5302,7 +5316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>224</v>
       </c>
@@ -5343,7 +5357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>226</v>
       </c>
@@ -5384,7 +5398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>228</v>
       </c>
@@ -5425,7 +5439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>230</v>
       </c>
@@ -5466,7 +5480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>233</v>
       </c>
@@ -5507,7 +5521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>235</v>
       </c>
@@ -5548,7 +5562,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>237</v>
       </c>
@@ -5589,7 +5603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>240</v>
       </c>
@@ -5630,7 +5644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>242</v>
       </c>
@@ -5671,7 +5685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>244</v>
       </c>
@@ -5712,7 +5726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>246</v>
       </c>
@@ -5753,7 +5767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>249</v>
       </c>
@@ -5794,7 +5808,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>251</v>
       </c>
@@ -5835,7 +5849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>253</v>
       </c>
@@ -5876,7 +5890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>255</v>
       </c>
@@ -5917,7 +5931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>257</v>
       </c>
@@ -5958,7 +5972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>260</v>
       </c>
@@ -5999,7 +6013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>262</v>
       </c>
@@ -6040,7 +6054,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>263</v>
       </c>
@@ -6081,7 +6095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>265</v>
       </c>
@@ -6122,7 +6136,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>267</v>
       </c>
@@ -6163,7 +6177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>268</v>
       </c>
@@ -6204,7 +6218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>270</v>
       </c>
@@ -6245,7 +6259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>272</v>
       </c>
@@ -6286,7 +6300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>274</v>
       </c>
@@ -6327,7 +6341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>276</v>
       </c>
@@ -6368,7 +6382,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>278</v>
       </c>
@@ -6409,7 +6423,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>280</v>
       </c>
@@ -6450,7 +6464,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>282</v>
       </c>
@@ -6491,7 +6505,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>284</v>
       </c>
@@ -6532,7 +6546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>286</v>
       </c>
@@ -6573,7 +6587,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>288</v>
       </c>
@@ -6614,7 +6628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>290</v>
       </c>
@@ -6655,7 +6669,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>293</v>
       </c>
@@ -6696,7 +6710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>296</v>
       </c>
@@ -6737,7 +6751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>298</v>
       </c>
@@ -6778,7 +6792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>301</v>
       </c>
@@ -6819,7 +6833,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>303</v>
       </c>
@@ -6860,7 +6874,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>305</v>
       </c>
@@ -6901,7 +6915,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>307</v>
       </c>
@@ -6942,7 +6956,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>310</v>
       </c>
@@ -6983,7 +6997,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>312</v>
       </c>
@@ -7024,7 +7038,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>315</v>
       </c>
@@ -7065,7 +7079,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>318</v>
       </c>
@@ -7106,7 +7120,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>320</v>
       </c>
@@ -7147,7 +7161,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>322</v>
       </c>
@@ -7188,7 +7202,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>324</v>
       </c>
@@ -7229,7 +7243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>326</v>
       </c>
@@ -7270,7 +7284,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>327</v>
       </c>
@@ -7311,7 +7325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>329</v>
       </c>
@@ -7352,7 +7366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>331</v>
       </c>
@@ -7393,7 +7407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>333</v>
       </c>
@@ -7434,7 +7448,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>336</v>
       </c>
@@ -7475,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>339</v>
       </c>
@@ -7516,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>341</v>
       </c>
@@ -7557,7 +7571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>343</v>
       </c>
@@ -7598,7 +7612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>345</v>
       </c>
@@ -7639,7 +7653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>347</v>
       </c>
@@ -7680,7 +7694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>349</v>
       </c>
@@ -7721,7 +7735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>351</v>
       </c>
@@ -7762,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>354</v>
       </c>
@@ -7803,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>358</v>
       </c>
@@ -7844,7 +7858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>360</v>
       </c>
@@ -7885,7 +7899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>363</v>
       </c>
@@ -7926,7 +7940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>365</v>
       </c>
@@ -7967,7 +7981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>367</v>
       </c>
@@ -8008,7 +8022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>369</v>
       </c>
@@ -8049,7 +8063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>371</v>
       </c>
@@ -8090,7 +8104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>372</v>
       </c>
@@ -8131,7 +8145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>374</v>
       </c>
@@ -8172,7 +8186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>376</v>
       </c>
@@ -8213,7 +8227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>378</v>
       </c>
@@ -8254,7 +8268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>380</v>
       </c>
@@ -8295,7 +8309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>382</v>
       </c>
@@ -8336,7 +8350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>384</v>
       </c>
@@ -8377,7 +8391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>386</v>
       </c>
@@ -8418,7 +8432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>388</v>
       </c>
@@ -8459,7 +8473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>390</v>
       </c>
@@ -8500,7 +8514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>393</v>
       </c>
@@ -8541,7 +8555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>395</v>
       </c>
@@ -8582,7 +8596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>397</v>
       </c>
@@ -8623,7 +8637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>399</v>
       </c>
@@ -8664,7 +8678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>401</v>
       </c>
@@ -8705,7 +8719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>403</v>
       </c>
@@ -8746,7 +8760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>405</v>
       </c>
@@ -8787,7 +8801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>407</v>
       </c>
@@ -8828,7 +8842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>408</v>
       </c>
@@ -8869,7 +8883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>410</v>
       </c>
@@ -8910,7 +8924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>412</v>
       </c>
@@ -8951,7 +8965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>414</v>
       </c>
@@ -8992,7 +9006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>415</v>
       </c>
@@ -9033,7 +9047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>417</v>
       </c>
@@ -9074,7 +9088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>419</v>
       </c>
@@ -9115,7 +9129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>420</v>
       </c>
@@ -9156,7 +9170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>422</v>
       </c>
@@ -9197,7 +9211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>424</v>
       </c>
@@ -9238,7 +9252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>426</v>
       </c>
@@ -9279,7 +9293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>428</v>
       </c>
@@ -9320,7 +9334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>430</v>
       </c>
@@ -9361,7 +9375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>432</v>
       </c>
@@ -9402,7 +9416,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>434</v>
       </c>
@@ -9443,7 +9457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>436</v>
       </c>
@@ -9484,7 +9498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>438</v>
       </c>
@@ -9525,7 +9539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>440</v>
       </c>
@@ -9566,7 +9580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>442</v>
       </c>
@@ -9607,7 +9621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>444</v>
       </c>
@@ -9648,7 +9662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>445</v>
       </c>
@@ -9689,7 +9703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>448</v>
       </c>
@@ -9730,7 +9744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>450</v>
       </c>
@@ -9771,7 +9785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>452</v>
       </c>
@@ -9812,7 +9826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>455</v>
       </c>
@@ -9853,7 +9867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>456</v>
       </c>
@@ -9894,7 +9908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>470</v>
       </c>
@@ -9935,7 +9949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>471</v>
       </c>
@@ -9976,7 +9990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>472</v>
       </c>
@@ -10017,7 +10031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>473</v>
       </c>
@@ -10058,7 +10072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>467</v>
       </c>
@@ -10099,7 +10113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>468</v>
       </c>
@@ -10140,7 +10154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>469</v>
       </c>
@@ -10193,19 +10207,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10246,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -10287,7 +10301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -10328,7 +10342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -10369,85 +10383,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E10">
+      <c r="E5">
         <v>99732173</v>
       </c>
-      <c r="F10">
+      <c r="F5">
         <v>99732451</v>
       </c>
-      <c r="G10">
+      <c r="G5">
         <v>279</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J10">
+      <c r="J5">
         <v>1258</v>
       </c>
-      <c r="K10">
+      <c r="K5">
         <v>1330</v>
       </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="E6">
         <v>99733900</v>
       </c>
-      <c r="F11">
+      <c r="F6">
         <v>99735253</v>
       </c>
-      <c r="G11">
+      <c r="G6">
         <v>1354</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="J11">
+      <c r="J6">
         <v>804</v>
       </c>
-      <c r="K11">
+      <c r="K6">
         <v>941</v>
       </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
         <v>8</v>
       </c>
     </row>
